--- a/folder/学生提交文件示例/马六/新建文件夹/通用答题卡.xlsx
+++ b/folder/学生提交文件示例/马六/新建文件夹/通用答题卡.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\新建文件夹\folder\学生提交文件\马六\新建文件夹\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pycode\examInfoPro\folder\学生提交文件示例\马六\新建文件夹\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1EFA31-434C-444A-A9C9-C4D482AA9BC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668DE3FB-CF1C-4CE8-B8A5-C4FADB78ECD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>单选题</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,10 @@
   </si>
   <si>
     <t>JavaScript&amp;jQuery应用</t>
+  </si>
+  <si>
+    <t>J22- guess_types:布尔型, 读取单元格数据类型时,启用或禁用类型推断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -809,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1052,9 +1056,8 @@
       <c r="B21" s="7">
         <v>2</v>
       </c>
-      <c r="C21" s="10" t="e">
-        <f>J22- guess_types:布尔型, 读取单元格数据类型时,启用或禁用类型推断</f>
-        <v>#NAME?</v>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
       </c>
       <c r="D21" s="24"/>
     </row>
@@ -1082,7 +1085,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
